--- a/englishOutputs/englishComparison_2.xlsx
+++ b/englishOutputs/englishComparison_2.xlsx
@@ -37,751 +37,751 @@
     <t>I'm Dr. ---</t>
   </si>
   <si>
+    <t>Oh, n ot so good, doctor.</t>
+  </si>
+  <si>
+    <t>concern</t>
+  </si>
+  <si>
+    <t>gives-p/s</t>
+  </si>
+  <si>
+    <t>Have a seat up there on the examining table...</t>
+  </si>
+  <si>
+    <t>orient</t>
+  </si>
+  <si>
+    <t>And, ah, tell me what your problem is.</t>
+  </si>
+  <si>
+    <t>?opinion</t>
+  </si>
+  <si>
+    <t>?med</t>
+  </si>
+  <si>
+    <t>I...I get...short of breath most everything I</t>
+  </si>
+  <si>
+    <t>gives-med</t>
+  </si>
+  <si>
+    <t>...well, most active thing...I do.</t>
+  </si>
+  <si>
+    <t>Ah-huh.</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>bc</t>
+  </si>
+  <si>
+    <t>How long have you had this?</t>
+  </si>
+  <si>
+    <t>It's been going on about...gradually about 8 or 10 years.</t>
+  </si>
+  <si>
+    <t>gives-l/s</t>
+  </si>
+  <si>
+    <t>Is it getting worse now?</t>
+  </si>
+  <si>
+    <t>checks</t>
+  </si>
+  <si>
+    <t>Yeah.</t>
+  </si>
+  <si>
+    <t>Do you work or are you retired?</t>
+  </si>
+  <si>
+    <t>[?]l/s</t>
+  </si>
+  <si>
+    <t>I'm retired.</t>
+  </si>
+  <si>
+    <t>How long have you been retired?</t>
+  </si>
+  <si>
+    <t>Six years.</t>
+  </si>
+  <si>
+    <t>Ah-hmm.</t>
+  </si>
+  <si>
+    <t>Does this shortness of breath occur when you're resting or more when you exert yourself?</t>
+  </si>
+  <si>
+    <t>More with exertion.</t>
+  </si>
+  <si>
+    <t>Do you ever wake up at night short of breath?</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Or wheeze at night?</t>
+  </si>
+  <si>
+    <t>Ah...unless I have a coughing spell.</t>
+  </si>
+  <si>
+    <t>Ah-hmm ,  ah-hmm.</t>
+  </si>
+  <si>
+    <t>Do your legs swell up at all?</t>
+  </si>
+  <si>
+    <t>Your ankles?</t>
+  </si>
+  <si>
+    <t>Do you smoke?</t>
+  </si>
+  <si>
+    <t>How much do you smoke?</t>
+  </si>
+  <si>
+    <t>Ah...I'm down to about a half a pack a day.</t>
+  </si>
+  <si>
+    <t>You had smoked heavier than this at one time?</t>
+  </si>
+  <si>
+    <t>Yes sir.</t>
+  </si>
+  <si>
+    <t>How much did you use to smoke?</t>
+  </si>
+  <si>
+    <t>Ah...for about 30 years I smoked about a pack and a half a day.</t>
+  </si>
+  <si>
+    <t>When did you cut down on your smoking?</t>
+  </si>
+  <si>
+    <t>I saw a doctor...</t>
+  </si>
+  <si>
+    <t>Recently and...</t>
+  </si>
+  <si>
+    <t>And he told you to quit smoking?</t>
+  </si>
+  <si>
+    <t>Did he tell you what your problem was, what your diagnosis is?</t>
+  </si>
+  <si>
+    <t>What?</t>
+  </si>
+  <si>
+    <t>Well, ah, he sent me to a lab for a breathing test.</t>
+  </si>
+  <si>
+    <t>And did he tell you what the results of those tests were?</t>
+  </si>
+  <si>
+    <t>gives-thera</t>
+  </si>
+  <si>
+    <t>I breathed into a machine and, ah</t>
+  </si>
+  <si>
+    <t>...they said I had medium emphysema</t>
+  </si>
+  <si>
+    <t>Whatever that is.</t>
+  </si>
+  <si>
+    <t>Medium emphysema.</t>
+  </si>
+  <si>
+    <t>Did he give you medicine?</t>
+  </si>
+  <si>
+    <t>[?]thera</t>
+  </si>
+  <si>
+    <t>What kind of medicine did he give you?</t>
+  </si>
+  <si>
+    <t>?thera</t>
+  </si>
+  <si>
+    <t>Ah, little white pills.</t>
+  </si>
+  <si>
+    <t>How many a day?</t>
+  </si>
+  <si>
+    <t>Three a day.</t>
+  </si>
+  <si>
+    <t>You don't know the name of them or what they are?</t>
+  </si>
+  <si>
+    <t>Yeah, yeah.</t>
+  </si>
+  <si>
+    <t>I may not pronounce it right.</t>
+  </si>
+  <si>
+    <t>Is it aminophylline?</t>
+  </si>
+  <si>
+    <t>Aminophylline?</t>
+  </si>
+  <si>
+    <t>I s that correct?</t>
+  </si>
+  <si>
+    <t>?reassure</t>
+  </si>
+  <si>
+    <t>That's correct, yeah.</t>
+  </si>
+  <si>
+    <t>Is that the only pills you took?</t>
+  </si>
+  <si>
+    <t>Ah...Yeah, well when I had chest colds they would give me some, ah...</t>
+  </si>
+  <si>
+    <t>Antibiotics.</t>
+  </si>
+  <si>
+    <t>Have you ever been in the hospital with this problem?</t>
+  </si>
+  <si>
+    <t>No, then you've never been in the hospital then for anything like this.</t>
+  </si>
+  <si>
+    <t>Have you ever had heart trouble?</t>
+  </si>
+  <si>
+    <t>High blood pressure?</t>
+  </si>
+  <si>
+    <t>Not that I know of.</t>
+  </si>
+  <si>
+    <t>Sugar?</t>
+  </si>
+  <si>
+    <t>That's alright.</t>
+  </si>
+  <si>
+    <t>Do you cough mucous up every day--phlegm?</t>
+  </si>
+  <si>
+    <t>Usually in the morning I cough up some … ah (cough)</t>
+  </si>
+  <si>
+    <t>...yellow, green phlegm</t>
+  </si>
+  <si>
+    <t>Yeah…</t>
+  </si>
+  <si>
+    <t>trans</t>
+  </si>
+  <si>
+    <t>Do you get a lot of colds?</t>
+  </si>
+  <si>
+    <t>About two...one or two every winter...</t>
+  </si>
+  <si>
+    <t>Chest colds like.</t>
+  </si>
+  <si>
+    <t>Ah-huh</t>
+  </si>
+  <si>
+    <t>...Ah...</t>
+  </si>
+  <si>
+    <t>Have you ever had any operations?</t>
+  </si>
+  <si>
+    <t>Been in the hospital for any particular reason at all?</t>
+  </si>
+  <si>
+    <t>I had, I think it was 1964,</t>
+  </si>
+  <si>
+    <t>I had, they called it a blocked artery...</t>
+  </si>
+  <si>
+    <t>And, ah, on the right side...</t>
+  </si>
+  <si>
+    <t>And, they corrected that with an operation they called a sympathectomy?</t>
+  </si>
+  <si>
+    <t>Ah-huh , a h-huh.</t>
+  </si>
+  <si>
+    <t>For a blocked artery.</t>
+  </si>
+  <si>
+    <t>Did that help you?</t>
+  </si>
+  <si>
+    <t>Any other operations?</t>
+  </si>
+  <si>
+    <t>Yeah..</t>
+  </si>
+  <si>
+    <t>I had an aneurysm in the aorta, in 1975...</t>
+  </si>
+  <si>
+    <t>And, ah... I made a good recovery.</t>
+  </si>
+  <si>
+    <t>r/o</t>
+  </si>
+  <si>
+    <t>Good surgeon.</t>
+  </si>
+  <si>
+    <t>comp</t>
+  </si>
+  <si>
+    <t>Are you allergic to any medicines at all?</t>
+  </si>
+  <si>
+    <t>None that I know of.</t>
+  </si>
+  <si>
+    <t>What kind of work did you do?</t>
+  </si>
+  <si>
+    <t>?l/s</t>
+  </si>
+  <si>
+    <t>I was a hardware...merchant, salesman.</t>
+  </si>
+  <si>
+    <t>Never worked around coal mines or around industrial dust or factories or smoke</t>
+  </si>
+  <si>
+    <t>c-l/s-p/s</t>
+  </si>
+  <si>
+    <t>or anything like that?</t>
+  </si>
+  <si>
+    <t>?p/s</t>
+  </si>
+  <si>
+    <t>Ah...Bethlehem Steel...way back in 1943.</t>
+  </si>
+  <si>
+    <t>How many years?</t>
+  </si>
+  <si>
+    <t>Not many.</t>
+  </si>
+  <si>
+    <t>Oh.</t>
+  </si>
+  <si>
+    <t>Two.</t>
+  </si>
+  <si>
+    <t>Do you have any trouble digesting your food,</t>
+  </si>
+  <si>
+    <t>swallowing your food,</t>
+  </si>
+  <si>
+    <t>moving your bowels at all</t>
+  </si>
+  <si>
+    <t>any difficulty urinating?</t>
+  </si>
+  <si>
+    <t>Ah...I have to get up at night and urinate.</t>
+  </si>
+  <si>
+    <t>You haven't had any blood with your bowel movement,</t>
+  </si>
+  <si>
+    <t>n o blood with your bowel movements   or anything like that?</t>
+  </si>
+  <si>
+    <t>No sir.</t>
+  </si>
+  <si>
+    <t>Okay, Mr. ---</t>
+  </si>
+  <si>
+    <t>Do you want to take your shirt off</t>
+  </si>
+  <si>
+    <t>so I can check you, please?</t>
+  </si>
+  <si>
+    <t>?permission</t>
+  </si>
+  <si>
+    <t>Is this alright up here?</t>
+  </si>
+  <si>
+    <t>[?]other</t>
+  </si>
+  <si>
+    <t>Sure, sure.</t>
+  </si>
+  <si>
+    <t>gives-other</t>
+  </si>
+  <si>
+    <t>Or I'll just lay it down on this chair here.</t>
+  </si>
+  <si>
+    <t>I don’t want it to fall.             (patient coughs)</t>
+  </si>
+  <si>
     <t>c-med/thera</t>
   </si>
   <si>
-    <t>Oh, n ot so good, doctor.</t>
-  </si>
-  <si>
-    <t>concern</t>
-  </si>
-  <si>
-    <t>r/o</t>
-  </si>
-  <si>
-    <t>Have a seat up there on the examining table...</t>
-  </si>
-  <si>
-    <t>orient</t>
-  </si>
-  <si>
-    <t>And, ah, tell me what your problem is.</t>
-  </si>
-  <si>
-    <t>?opinion</t>
-  </si>
-  <si>
-    <t>I...I get...short of breath most everything I</t>
-  </si>
-  <si>
-    <t>gives-med</t>
-  </si>
-  <si>
-    <t>...well, most active thing...I do.</t>
-  </si>
-  <si>
-    <t>Ah-huh.</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
-    <t>bc</t>
-  </si>
-  <si>
-    <t>How long have you had this?</t>
-  </si>
-  <si>
-    <t>It's been going on about...gradually about 8 or 10 years.</t>
-  </si>
-  <si>
-    <t>Is it getting worse now?</t>
-  </si>
-  <si>
-    <t>Yeah.</t>
-  </si>
-  <si>
-    <t>Do you work or are you retired?</t>
-  </si>
-  <si>
-    <t>[?]l/s</t>
-  </si>
-  <si>
-    <t>I'm retired.</t>
-  </si>
-  <si>
-    <t>gives-l/s</t>
-  </si>
-  <si>
-    <t>How long have you been retired?</t>
-  </si>
-  <si>
-    <t>Six years.</t>
-  </si>
-  <si>
-    <t>Ah-hmm.</t>
-  </si>
-  <si>
-    <t>Does this shortness of breath occur when you're resting or more when you exert yourself?</t>
-  </si>
-  <si>
-    <t>More with exertion.</t>
-  </si>
-  <si>
-    <t>Do you ever wake up at night short of breath?</t>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>Or wheeze at night?</t>
-  </si>
-  <si>
-    <t>Ah...unless I have a coughing spell.</t>
-  </si>
-  <si>
-    <t>Ah-hmm ,  ah-hmm.</t>
-  </si>
-  <si>
-    <t>Do your legs swell up at all?</t>
-  </si>
-  <si>
-    <t>Your ankles?</t>
-  </si>
-  <si>
-    <t>Do you smoke?</t>
-  </si>
-  <si>
-    <t>How much do you smoke?</t>
-  </si>
-  <si>
-    <t>Ah...I'm down to about a half a pack a day.</t>
-  </si>
-  <si>
-    <t>You had smoked heavier than this at one time?</t>
-  </si>
-  <si>
-    <t>Yes sir.</t>
-  </si>
-  <si>
-    <t>How much did you use to smoke?</t>
-  </si>
-  <si>
-    <t>Ah...for about 30 years I smoked about a pack and a half a day.</t>
-  </si>
-  <si>
-    <t>When did you cut down on your smoking?</t>
-  </si>
-  <si>
-    <t>I saw a doctor...</t>
+    <t>You cough quite a bit, don't you?</t>
+  </si>
+  <si>
+    <t>Yeah, ah-huh.</t>
+  </si>
+  <si>
+    <t>Do you wheeze sometimes too?</t>
+  </si>
+  <si>
+    <t>Just have a seat on the table here.</t>
+  </si>
+  <si>
+    <t>Just sit up with your feet over the side please.</t>
+  </si>
+  <si>
+    <t>Do you live right in  Baltimore  or do you live in the suburbs?</t>
+  </si>
+  <si>
+    <t>Suburbs.</t>
+  </si>
+  <si>
+    <t>Is there much smoke or smog or pollution where you live?</t>
+  </si>
+  <si>
+    <t>Not as much as here.</t>
+  </si>
+  <si>
+    <t>There's a lot around here...</t>
+  </si>
+  <si>
+    <t>Especially today.</t>
+  </si>
+  <si>
+    <t>Do the atmospheric conditions seem to bother you at all?</t>
+  </si>
+  <si>
+    <t>A little bit.</t>
+  </si>
+  <si>
+    <t>Just open your mouth real widely now.</t>
+  </si>
+  <si>
+    <t>And lift up your tongue please.</t>
+  </si>
+  <si>
+    <t>Just look at the white spot on the wall.</t>
+  </si>
+  <si>
+    <t>Have you ever experienced chest pains when             you exert yourself</t>
+  </si>
+  <si>
+    <t>or when you go outside and it's cold?</t>
+  </si>
+  <si>
+    <t>Have you ever had to take                                            medication for chest pain?</t>
+  </si>
+  <si>
+    <t>...Or pressure in your chest?</t>
+  </si>
+  <si>
+    <t>No, my ribs ache after a coughing spell.</t>
+  </si>
+  <si>
+    <t>Excuse me.</t>
+  </si>
+  <si>
+    <t>Take a deep breath please.</t>
+  </si>
+  <si>
+    <t>Just lay down please for a second--on your back.</t>
+  </si>
+  <si>
+    <t>Unbutton your pants, Mr. ---.</t>
+  </si>
+  <si>
+    <t>... Why didn't you go back to that other doctor who prescribed the, ah...medicines for you, the animophylline?</t>
+  </si>
+  <si>
+    <t>He died.</t>
+  </si>
+  <si>
+    <t>Oh, he died.</t>
+  </si>
+  <si>
+    <t>Did the medicine he gave you help you?</t>
+  </si>
+  <si>
+    <t>Yes.</t>
+  </si>
+  <si>
+    <t>Did you take it every day or just when you needed it?</t>
+  </si>
+  <si>
+    <t>I did for a whole week...</t>
+  </si>
+  <si>
+    <t>Then, I don't know, I felt better...</t>
+  </si>
+  <si>
+    <t>And, it got to be such a bother, I...</t>
+  </si>
+  <si>
+    <t>I didn't keep up with it.</t>
+  </si>
+  <si>
+    <t>Okay.</t>
+  </si>
+  <si>
+    <t>If you want to sit up and get dressed, Mr. ---</t>
+  </si>
+  <si>
+    <t>and I'll have my assistant come in and take your temperature.</t>
+  </si>
+  <si>
+    <t>Then I'll have you come back to my office</t>
+  </si>
+  <si>
+    <t>and I'll talk to you about your problem.</t>
+  </si>
+  <si>
+    <t>I'll see you in a few minutes.</t>
+  </si>
+  <si>
+    <t>You might have emphysema</t>
+  </si>
+  <si>
+    <t>...bronchitis or asthma</t>
+  </si>
+  <si>
+    <t>...But it sounds from your history and your examination like you have emphysema.</t>
+  </si>
+  <si>
+    <t>That's an over-inflation of the air sacks in your lung</t>
+  </si>
+  <si>
+    <t>...ah...and that is aggravated by smoking cigarettes.</t>
+  </si>
+  <si>
+    <t>Ah- hmm...You should try to discontinue smoking completely.</t>
+  </si>
+  <si>
+    <t>If you can't quit all of your smoking at one time, I advise over a period of a few  weeks</t>
+  </si>
+  <si>
+    <t>you gradually cut down one cigarette every other day</t>
+  </si>
+  <si>
+    <t>so that you're off the  cigarettes in two three weeks.</t>
+  </si>
+  <si>
+    <t>Ah...or…</t>
+  </si>
+  <si>
+    <t>That's a must?</t>
+  </si>
+  <si>
+    <t>That's a  must .</t>
+  </si>
+  <si>
+    <t>Also I'd like you to drink a lot more fluids</t>
+  </si>
+  <si>
+    <t>…to loosen the mucous you have in your chest.</t>
+  </si>
+  <si>
+    <t>Like...</t>
+  </si>
+  <si>
+    <t>pardon me</t>
+  </si>
+  <si>
+    <t>like what?</t>
+  </si>
+  <si>
+    <t>More water.</t>
+  </si>
+  <si>
+    <t>I'd like you to get a cool mist vaporizer or humidifier to run in your  room a few hours a day,</t>
+  </si>
+  <si>
+    <t>so that the vapor in the air will help loosen the mucous that  you have.</t>
+  </si>
+  <si>
+    <t>And if you're able to cough up this mucous, you will probably be able to get the air in and out of your lungs with less difficulty.</t>
+  </si>
+  <si>
+    <t>See, you have this thick  yellow, green mucous</t>
+  </si>
+  <si>
+    <t>and this plugs your windpipe.</t>
+  </si>
+  <si>
+    <t>I see.</t>
+  </si>
+  <si>
+    <t>I'm also going to send you to the hospital...</t>
+  </si>
+  <si>
+    <t>to get a, ah...blood test to measure the  amount of oxygen in your blood.</t>
+  </si>
+  <si>
+    <t>And here in my office we can take your chest  x-ray</t>
+  </si>
+  <si>
+    <t>and do a breathing test on you to see, ah...how much difficulty you              have with breathing.</t>
+  </si>
+  <si>
+    <t>Some of your problem may be reversible.</t>
+  </si>
+  <si>
+    <t>You may be able to improve considerably</t>
+  </si>
+  <si>
+    <t>if you follow my advice.</t>
+  </si>
+  <si>
+    <t>It gets better?</t>
+  </si>
+  <si>
+    <t>Oh yes , i t gets better.</t>
+  </si>
+  <si>
+    <t>Maybe not completely better,</t>
+  </si>
+  <si>
+    <t>but ah...significantly better.</t>
+  </si>
+  <si>
+    <t>Can I play golf again?</t>
+  </si>
+  <si>
+    <t>Ah...let's wait and see.</t>
+  </si>
+  <si>
+    <t>Alright sir.</t>
+  </si>
+  <si>
+    <t>That's a possibility.</t>
+  </si>
+  <si>
+    <t>Ahm...I'm going to give you a prescription right now for some Ampicillin</t>
+  </si>
+  <si>
+    <t>because you're coughing up this yellow green mucous.</t>
+  </si>
+  <si>
+    <t>Ahm... and I'm going to give you a prescription for some colydil, ah, for breathing.</t>
+  </si>
+  <si>
+    <t>What's that do, doctor?</t>
+  </si>
+  <si>
+    <t>Colydil is like aminophylline.</t>
+  </si>
+  <si>
+    <t>Oh...ah-hmm.</t>
+  </si>
+  <si>
+    <t>And, ah...we'll see how you do.</t>
+  </si>
+  <si>
+    <t>I'll see you next week.</t>
+  </si>
+  <si>
+    <t>If you're not improved as much as I'd like, I can give you some other kind of medications to take</t>
+  </si>
+  <si>
+    <t>C depending on the results of your blood test.</t>
+  </si>
+  <si>
+    <t>So I'm going to give you the prescription for some ampicillin and colydil.</t>
+  </si>
+  <si>
+    <t>And     we'll get these tests.</t>
+  </si>
+  <si>
+    <t>And I'll see you in the office next week.</t>
+  </si>
+  <si>
+    <t>And if you have any problems, you give me a call over the phone</t>
+  </si>
+  <si>
+    <t>Okay?</t>
+  </si>
+  <si>
+    <t>?understand</t>
+  </si>
+  <si>
+    <t>Ah-hmm...</t>
+  </si>
+  <si>
+    <t>No smoking.</t>
+  </si>
+  <si>
+    <t>Gradually cut down?</t>
+  </si>
+  <si>
+    <t>Gradually cut down so you don't smoke at all.</t>
+  </si>
+  <si>
+    <t>And, ah...If you have any problems...you, ah...give me...a call.</t>
+  </si>
+  <si>
+    <t>Like what?</t>
+  </si>
+  <si>
+    <t>Oh, if you get more short of breath...than you are now.</t>
+  </si>
+  <si>
+    <t>If it gets worse I’d like to know about it.</t>
+  </si>
+  <si>
+    <t>Or if your wheezing gets worse.</t>
+  </si>
+  <si>
+    <t>We'll try you on this medicine</t>
+  </si>
+  <si>
+    <t>and I'll see you next week. (phone rings)</t>
+  </si>
+  <si>
+    <t>Excuse me one second.</t>
+  </si>
+  <si>
+    <t>Thank you, doctor.</t>
   </si>
   <si>
     <t>approve</t>
-  </si>
-  <si>
-    <t>Recently and...</t>
-  </si>
-  <si>
-    <t>And he told you to quit smoking?</t>
-  </si>
-  <si>
-    <t>Did he tell you what your problem was, what your diagnosis is?</t>
-  </si>
-  <si>
-    <t>What?</t>
-  </si>
-  <si>
-    <t>?med</t>
-  </si>
-  <si>
-    <t>checks</t>
-  </si>
-  <si>
-    <t>Well, ah, he sent me to a lab for a breathing test.</t>
-  </si>
-  <si>
-    <t>And did he tell you what the results of those tests were?</t>
-  </si>
-  <si>
-    <t>I breathed into a machine and, ah</t>
-  </si>
-  <si>
-    <t>...they said I had medium emphysema</t>
-  </si>
-  <si>
-    <t>Whatever that is.</t>
-  </si>
-  <si>
-    <t>Medium emphysema.</t>
-  </si>
-  <si>
-    <t>Did he give you medicine?</t>
-  </si>
-  <si>
-    <t>[?]thera</t>
-  </si>
-  <si>
-    <t>gives-thera</t>
-  </si>
-  <si>
-    <t>What kind of medicine did he give you?</t>
-  </si>
-  <si>
-    <t>?thera</t>
-  </si>
-  <si>
-    <t>Ah, little white pills.</t>
-  </si>
-  <si>
-    <t>How many a day?</t>
-  </si>
-  <si>
-    <t>Three a day.</t>
-  </si>
-  <si>
-    <t>You don't know the name of them or what they are?</t>
-  </si>
-  <si>
-    <t>Yeah, yeah.</t>
-  </si>
-  <si>
-    <t>I may not pronounce it right.</t>
-  </si>
-  <si>
-    <t>Is it aminophylline?</t>
-  </si>
-  <si>
-    <t>Aminophylline?</t>
-  </si>
-  <si>
-    <t>I s that correct?</t>
-  </si>
-  <si>
-    <t>?reassure</t>
-  </si>
-  <si>
-    <t>That's correct, yeah.</t>
-  </si>
-  <si>
-    <t>Is that the only pills you took?</t>
-  </si>
-  <si>
-    <t>Ah...Yeah, well when I had chest colds they would give me some, ah...</t>
-  </si>
-  <si>
-    <t>Antibiotics.</t>
-  </si>
-  <si>
-    <t>Have you ever been in the hospital with this problem?</t>
-  </si>
-  <si>
-    <t>?p/s</t>
-  </si>
-  <si>
-    <t>No, then you've never been in the hospital then for anything like this.</t>
-  </si>
-  <si>
-    <t>Have you ever had heart trouble?</t>
-  </si>
-  <si>
-    <t>High blood pressure?</t>
-  </si>
-  <si>
-    <t>Not that I know of.</t>
-  </si>
-  <si>
-    <t>Sugar?</t>
-  </si>
-  <si>
-    <t>That's alright.</t>
-  </si>
-  <si>
-    <t>Do you cough mucous up every day--phlegm?</t>
-  </si>
-  <si>
-    <t>Usually in the morning I cough up some … ah (cough)</t>
-  </si>
-  <si>
-    <t>...yellow, green phlegm</t>
-  </si>
-  <si>
-    <t>Yeah…</t>
-  </si>
-  <si>
-    <t>trans</t>
-  </si>
-  <si>
-    <t>Do you get a lot of colds?</t>
-  </si>
-  <si>
-    <t>About two...one or two every winter...</t>
-  </si>
-  <si>
-    <t>Chest colds like.</t>
-  </si>
-  <si>
-    <t>Ah-huh</t>
-  </si>
-  <si>
-    <t>...Ah...</t>
-  </si>
-  <si>
-    <t>Have you ever had any operations?</t>
-  </si>
-  <si>
-    <t>Been in the hospital for any particular reason at all?</t>
-  </si>
-  <si>
-    <t>I had, I think it was 1964,</t>
-  </si>
-  <si>
-    <t>I had, they called it a blocked artery...</t>
-  </si>
-  <si>
-    <t>And, ah, on the right side...</t>
-  </si>
-  <si>
-    <t>And, they corrected that with an operation they called a sympathectomy?</t>
-  </si>
-  <si>
-    <t>Ah-huh , a h-huh.</t>
-  </si>
-  <si>
-    <t>For a blocked artery.</t>
-  </si>
-  <si>
-    <t>Did that help you?</t>
-  </si>
-  <si>
-    <t>Any other operations?</t>
-  </si>
-  <si>
-    <t>Yeah..</t>
-  </si>
-  <si>
-    <t>I had an aneurysm in the aorta, in 1975...</t>
-  </si>
-  <si>
-    <t>And, ah... I made a good recovery.</t>
-  </si>
-  <si>
-    <t>Good surgeon.</t>
-  </si>
-  <si>
-    <t>comp</t>
-  </si>
-  <si>
-    <t>Are you allergic to any medicines at all?</t>
-  </si>
-  <si>
-    <t>None that I know of.</t>
-  </si>
-  <si>
-    <t>What kind of work did you do?</t>
-  </si>
-  <si>
-    <t>?l/s</t>
-  </si>
-  <si>
-    <t>I was a hardware...merchant, salesman.</t>
-  </si>
-  <si>
-    <t>Never worked around coal mines or around industrial dust or factories or smoke</t>
-  </si>
-  <si>
-    <t>c-l/s-p/s</t>
-  </si>
-  <si>
-    <t>or anything like that?</t>
-  </si>
-  <si>
-    <t>Ah...Bethlehem Steel...way back in 1943.</t>
-  </si>
-  <si>
-    <t>How many years?</t>
-  </si>
-  <si>
-    <t>Not many.</t>
-  </si>
-  <si>
-    <t>Oh.</t>
-  </si>
-  <si>
-    <t>Two.</t>
-  </si>
-  <si>
-    <t>Do you have any trouble digesting your food,</t>
-  </si>
-  <si>
-    <t>swallowing your food,</t>
-  </si>
-  <si>
-    <t>moving your bowels at all</t>
-  </si>
-  <si>
-    <t>any difficulty urinating?</t>
-  </si>
-  <si>
-    <t>Ah...I have to get up at night and urinate.</t>
-  </si>
-  <si>
-    <t>You haven't had any blood with your bowel movement,</t>
-  </si>
-  <si>
-    <t>n o blood with your bowel movements   or anything like that?</t>
-  </si>
-  <si>
-    <t>No sir.</t>
-  </si>
-  <si>
-    <t>Okay, Mr. ---</t>
-  </si>
-  <si>
-    <t>Do you want to take your shirt off</t>
-  </si>
-  <si>
-    <t>so I can check you, please?</t>
-  </si>
-  <si>
-    <t>?permission</t>
-  </si>
-  <si>
-    <t>Is this alright up here?</t>
-  </si>
-  <si>
-    <t>[?]other</t>
-  </si>
-  <si>
-    <t>Sure, sure.</t>
-  </si>
-  <si>
-    <t>gives-other</t>
-  </si>
-  <si>
-    <t>Or I'll just lay it down on this chair here.</t>
-  </si>
-  <si>
-    <t>I don’t want it to fall.             (patient coughs)</t>
-  </si>
-  <si>
-    <t>You cough quite a bit, don't you?</t>
-  </si>
-  <si>
-    <t>Yeah, ah-huh.</t>
-  </si>
-  <si>
-    <t>Do you wheeze sometimes too?</t>
-  </si>
-  <si>
-    <t>Just have a seat on the table here.</t>
-  </si>
-  <si>
-    <t>Just sit up with your feet over the side please.</t>
-  </si>
-  <si>
-    <t>Do you live right in  Baltimore  or do you live in the suburbs?</t>
-  </si>
-  <si>
-    <t>Suburbs.</t>
-  </si>
-  <si>
-    <t>Is there much smoke or smog or pollution where you live?</t>
-  </si>
-  <si>
-    <t>Not as much as here.</t>
-  </si>
-  <si>
-    <t>There's a lot around here...</t>
-  </si>
-  <si>
-    <t>Especially today.</t>
-  </si>
-  <si>
-    <t>Do the atmospheric conditions seem to bother you at all?</t>
-  </si>
-  <si>
-    <t>A little bit.</t>
-  </si>
-  <si>
-    <t>Just open your mouth real widely now.</t>
-  </si>
-  <si>
-    <t>And lift up your tongue please.</t>
-  </si>
-  <si>
-    <t>Just look at the white spot on the wall.</t>
-  </si>
-  <si>
-    <t>Have you ever experienced chest pains when             you exert yourself</t>
-  </si>
-  <si>
-    <t>or when you go outside and it's cold?</t>
-  </si>
-  <si>
-    <t>Have you ever had to take                                            medication for chest pain?</t>
-  </si>
-  <si>
-    <t>...Or pressure in your chest?</t>
-  </si>
-  <si>
-    <t>No, my ribs ache after a coughing spell.</t>
-  </si>
-  <si>
-    <t>Excuse me.</t>
-  </si>
-  <si>
-    <t>Take a deep breath please.</t>
-  </si>
-  <si>
-    <t>Just lay down please for a second--on your back.</t>
-  </si>
-  <si>
-    <t>Unbutton your pants, Mr. ---.</t>
-  </si>
-  <si>
-    <t>... Why didn't you go back to that other doctor who prescribed the, ah...medicines for you, the animophylline?</t>
-  </si>
-  <si>
-    <t>He died.</t>
-  </si>
-  <si>
-    <t>Oh, he died.</t>
-  </si>
-  <si>
-    <t>Did the medicine he gave you help you?</t>
-  </si>
-  <si>
-    <t>Yes.</t>
-  </si>
-  <si>
-    <t>Did you take it every day or just when you needed it?</t>
-  </si>
-  <si>
-    <t>I did for a whole week...</t>
-  </si>
-  <si>
-    <t>Then, I don't know, I felt better...</t>
-  </si>
-  <si>
-    <t>And, it got to be such a bother, I...</t>
-  </si>
-  <si>
-    <t>gives-p/s</t>
-  </si>
-  <si>
-    <t>I didn't keep up with it.</t>
-  </si>
-  <si>
-    <t>Okay.</t>
-  </si>
-  <si>
-    <t>If you want to sit up and get dressed, Mr. ---</t>
-  </si>
-  <si>
-    <t>and I'll have my assistant come in and take your temperature.</t>
-  </si>
-  <si>
-    <t>Then I'll have you come back to my office</t>
-  </si>
-  <si>
-    <t>and I'll talk to you about your problem.</t>
-  </si>
-  <si>
-    <t>I'll see you in a few minutes.</t>
-  </si>
-  <si>
-    <t>You might have emphysema</t>
-  </si>
-  <si>
-    <t>...bronchitis or asthma</t>
-  </si>
-  <si>
-    <t>...But it sounds from your history and your examination like you have emphysema.</t>
-  </si>
-  <si>
-    <t>That's an over-inflation of the air sacks in your lung</t>
-  </si>
-  <si>
-    <t>...ah...and that is aggravated by smoking cigarettes.</t>
-  </si>
-  <si>
-    <t>Ah- hmm...You should try to discontinue smoking completely.</t>
-  </si>
-  <si>
-    <t>If you can't quit all of your smoking at one time, I advise over a period of a few  weeks</t>
-  </si>
-  <si>
-    <t>you gradually cut down one cigarette every other day</t>
-  </si>
-  <si>
-    <t>so that you're off the  cigarettes in two three weeks.</t>
-  </si>
-  <si>
-    <t>Ah...or…</t>
-  </si>
-  <si>
-    <t>That's a must?</t>
-  </si>
-  <si>
-    <t>That's a  must .</t>
-  </si>
-  <si>
-    <t>Also I'd like you to drink a lot more fluids</t>
-  </si>
-  <si>
-    <t>…to loosen the mucous you have in your chest.</t>
-  </si>
-  <si>
-    <t>Like...</t>
-  </si>
-  <si>
-    <t>pardon me</t>
-  </si>
-  <si>
-    <t>like what?</t>
-  </si>
-  <si>
-    <t>More water.</t>
-  </si>
-  <si>
-    <t>I'd like you to get a cool mist vaporizer or humidifier to run in your  room a few hours a day,</t>
-  </si>
-  <si>
-    <t>so that the vapor in the air will help loosen the mucous that  you have.</t>
-  </si>
-  <si>
-    <t>And if you're able to cough up this mucous, you will probably be able to get the air in and out of your lungs with less difficulty.</t>
-  </si>
-  <si>
-    <t>See, you have this thick  yellow, green mucous</t>
-  </si>
-  <si>
-    <t>and this plugs your windpipe.</t>
-  </si>
-  <si>
-    <t>I see.</t>
-  </si>
-  <si>
-    <t>I'm also going to send you to the hospital...</t>
-  </si>
-  <si>
-    <t>to get a, ah...blood test to measure the  amount of oxygen in your blood.</t>
-  </si>
-  <si>
-    <t>And here in my office we can take your chest  x-ray</t>
-  </si>
-  <si>
-    <t>and do a breathing test on you to see, ah...how much difficulty you              have with breathing.</t>
-  </si>
-  <si>
-    <t>Some of your problem may be reversible.</t>
-  </si>
-  <si>
-    <t>You may be able to improve considerably</t>
-  </si>
-  <si>
-    <t>if you follow my advice.</t>
-  </si>
-  <si>
-    <t>It gets better?</t>
-  </si>
-  <si>
-    <t>Oh yes , i t gets better.</t>
-  </si>
-  <si>
-    <t>Maybe not completely better,</t>
-  </si>
-  <si>
-    <t>but ah...significantly better.</t>
-  </si>
-  <si>
-    <t>Can I play golf again?</t>
-  </si>
-  <si>
-    <t>Ah...let's wait and see.</t>
-  </si>
-  <si>
-    <t>Alright sir.</t>
-  </si>
-  <si>
-    <t>That's a possibility.</t>
-  </si>
-  <si>
-    <t>Ahm...I'm going to give you a prescription right now for some Ampicillin</t>
-  </si>
-  <si>
-    <t>because you're coughing up this yellow green mucous.</t>
-  </si>
-  <si>
-    <t>Ahm... and I'm going to give you a prescription for some colydil, ah, for breathing.</t>
-  </si>
-  <si>
-    <t>What's that do, doctor?</t>
-  </si>
-  <si>
-    <t>Colydil is like aminophylline.</t>
-  </si>
-  <si>
-    <t>Oh...ah-hmm.</t>
-  </si>
-  <si>
-    <t>And, ah...we'll see how you do.</t>
-  </si>
-  <si>
-    <t>I'll see you next week.</t>
-  </si>
-  <si>
-    <t>If you're not improved as much as I'd like, I can give you some other kind of medications to take</t>
-  </si>
-  <si>
-    <t>C depending on the results of your blood test.</t>
-  </si>
-  <si>
-    <t>So I'm going to give you the prescription for some ampicillin and colydil.</t>
-  </si>
-  <si>
-    <t>And     we'll get these tests.</t>
-  </si>
-  <si>
-    <t>And I'll see you in the office next week.</t>
-  </si>
-  <si>
-    <t>And if you have any problems, you give me a call over the phone</t>
-  </si>
-  <si>
-    <t>Okay?</t>
-  </si>
-  <si>
-    <t>?understand</t>
-  </si>
-  <si>
-    <t>Ah-hmm...</t>
-  </si>
-  <si>
-    <t>No smoking.</t>
-  </si>
-  <si>
-    <t>Gradually cut down?</t>
-  </si>
-  <si>
-    <t>Gradually cut down so you don't smoke at all.</t>
-  </si>
-  <si>
-    <t>And, ah...If you have any problems...you, ah...give me...a call.</t>
-  </si>
-  <si>
-    <t>Like what?</t>
-  </si>
-  <si>
-    <t>Oh, if you get more short of breath...than you are now.</t>
-  </si>
-  <si>
-    <t>If it gets worse I’d like to know about it.</t>
-  </si>
-  <si>
-    <t>Or if your wheezing gets worse.</t>
-  </si>
-  <si>
-    <t>We'll try you on this medicine</t>
-  </si>
-  <si>
-    <t>and I'll see you next week. (phone rings)</t>
-  </si>
-  <si>
-    <t>Excuse me one second.</t>
-  </si>
-  <si>
-    <t>Thank you, doctor.</t>
   </si>
   <si>
     <t>You're welcome.</t>
@@ -1158,40 +1158,40 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1202,7 +1202,7 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1213,7 +1213,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1246,23 +1246,23 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
@@ -1295,10 +1295,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1306,18 +1306,18 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -1339,13 +1339,13 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1361,7 +1361,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -1372,18 +1372,18 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
         <v>19</v>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
@@ -1427,35 +1427,35 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1471,21 +1471,21 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
         <v>19</v>
@@ -1493,24 +1493,24 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1526,10 +1526,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1537,10 +1537,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s">
         <v>19</v>
@@ -1548,32 +1548,32 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1581,18 +1581,18 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B43" t="s">
         <v>20</v>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B45" t="s">
         <v>19</v>
@@ -1631,12 +1631,12 @@
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
@@ -1672,15 +1672,15 @@
         <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C50" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s">
         <v>16</v>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B52" t="s">
         <v>19</v>
@@ -1702,18 +1702,18 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B55" t="s">
         <v>16</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B56" t="s">
         <v>16</v>
@@ -1746,7 +1746,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
@@ -1757,21 +1757,21 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="C58" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
         <v>63</v>
-      </c>
-      <c r="B59" t="s">
-        <v>64</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -1779,10 +1779,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C60" t="s">
         <v>19</v>
@@ -1790,10 +1790,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -1801,10 +1801,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C62" t="s">
         <v>16</v>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B63" t="s">
         <v>19</v>
@@ -1823,21 +1823,21 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C65" t="s">
         <v>19</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B66" t="s">
         <v>19</v>
@@ -1856,10 +1856,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -1867,10 +1867,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C68" t="s">
         <v>19</v>
@@ -1878,10 +1878,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>16</v>
@@ -1889,10 +1889,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C70" t="s">
         <v>16</v>
@@ -1900,13 +1900,13 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="C71" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1914,7 +1914,7 @@
         <v>18</v>
       </c>
       <c r="B72" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C72" t="s">
         <v>20</v>
@@ -1922,10 +1922,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C73" t="s">
         <v>16</v>
@@ -1933,10 +1933,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C74" t="s">
         <v>19</v>
@@ -1944,21 +1944,21 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C75" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C76" t="s">
         <v>16</v>
@@ -1977,18 +1977,18 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C78" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B79" t="s">
         <v>19</v>
@@ -1999,73 +1999,73 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
         <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B81" t="s">
         <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="C82" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B84" t="s">
         <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
         <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
         <v>16</v>
@@ -2076,7 +2076,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
         <v>5</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
         <v>16</v>
@@ -2098,7 +2098,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
@@ -2109,7 +2109,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B90" t="s">
         <v>16</v>
@@ -2120,7 +2120,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
         <v>16</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C92" t="s">
         <v>19</v>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B94" t="s">
         <v>5</v>
@@ -2164,13 +2164,13 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
         <v>16</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2186,7 +2186,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B97" t="s">
         <v>16</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B98" t="s">
         <v>19</v>
@@ -2208,32 +2208,32 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C99" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C100" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2241,7 +2241,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B102" t="s">
         <v>16</v>
@@ -2255,15 +2255,15 @@
         <v>54</v>
       </c>
       <c r="B103" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C103" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B104" t="s">
         <v>16</v>
@@ -2274,7 +2274,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B105" t="s">
         <v>16</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B107" t="s">
         <v>16</v>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B109" t="s">
         <v>16</v>
@@ -2329,7 +2329,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B110" t="s">
         <v>19</v>
@@ -2340,18 +2340,18 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B111" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="C111" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B112" t="s">
         <v>19</v>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B113" t="s">
         <v>5</v>
@@ -2373,7 +2373,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B114" t="s">
         <v>16</v>
@@ -2384,18 +2384,18 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B115" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C115" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B116" t="s">
         <v>16</v>
@@ -2406,7 +2406,7 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B117" t="s">
         <v>16</v>
@@ -2417,7 +2417,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B118" t="s">
         <v>20</v>
@@ -2428,18 +2428,18 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B119" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="C119" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B120" t="s">
         <v>20</v>
@@ -2450,21 +2450,21 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B121" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C121" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B122" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2472,10 +2472,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B123" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C123" t="s">
         <v>16</v>
@@ -2483,65 +2483,65 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B124" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C124" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B125" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C125" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B126" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C126" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B127" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C127" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B128" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C128" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B129" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2549,18 +2549,18 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B130" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C130" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B131" t="s">
         <v>20</v>
@@ -2571,10 +2571,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B132" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C132" t="s">
         <v>19</v>
@@ -2582,29 +2582,29 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B133" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C133" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B134" t="s">
         <v>5</v>
       </c>
       <c r="C134" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B135" t="s">
         <v>5</v>
@@ -2615,18 +2615,18 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B136" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C136" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B137" t="s">
         <v>16</v>
@@ -2648,29 +2648,29 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B139" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C139" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B140" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C140" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B141" t="s">
         <v>16</v>
@@ -2681,10 +2681,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B142" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C142" t="s">
         <v>19</v>
@@ -2692,29 +2692,29 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B143" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C143" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
+        <v>137</v>
+      </c>
+      <c r="B144" t="s">
         <v>138</v>
       </c>
-      <c r="B144" t="s">
-        <v>139</v>
-      </c>
       <c r="C144" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B145" t="s">
         <v>19</v>
@@ -2725,10 +2725,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
+        <v>139</v>
+      </c>
+      <c r="B146" t="s">
         <v>140</v>
-      </c>
-      <c r="B146" t="s">
-        <v>141</v>
       </c>
       <c r="C146" t="s">
         <v>16</v>
@@ -2736,18 +2736,18 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
+        <v>141</v>
+      </c>
+      <c r="B147" t="s">
         <v>142</v>
       </c>
-      <c r="B147" t="s">
-        <v>143</v>
-      </c>
       <c r="C147" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B148" t="s">
         <v>19</v>
@@ -2758,24 +2758,24 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B149" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C149" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
+        <v>144</v>
+      </c>
+      <c r="B150" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" t="s">
         <v>145</v>
-      </c>
-      <c r="B150" t="s">
-        <v>9</v>
-      </c>
-      <c r="C150" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2808,12 +2808,12 @@
         <v>5</v>
       </c>
       <c r="C153" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B154" t="s">
         <v>16</v>
@@ -2827,15 +2827,15 @@
         <v>149</v>
       </c>
       <c r="B155" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C155" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B156" t="s">
         <v>19</v>
@@ -2849,10 +2849,10 @@
         <v>150</v>
       </c>
       <c r="B157" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C157" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2860,10 +2860,10 @@
         <v>151</v>
       </c>
       <c r="B158" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C158" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2871,7 +2871,7 @@
         <v>152</v>
       </c>
       <c r="B159" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C159" t="s">
         <v>19</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B160" t="s">
         <v>19</v>
@@ -2893,10 +2893,10 @@
         <v>153</v>
       </c>
       <c r="B161" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C161" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2904,7 +2904,7 @@
         <v>154</v>
       </c>
       <c r="B162" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C162" t="s">
         <v>16</v>
@@ -2926,10 +2926,10 @@
         <v>155</v>
       </c>
       <c r="B164" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C164" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2948,10 +2948,10 @@
         <v>156</v>
       </c>
       <c r="B166" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C166" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2989,7 +2989,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B170" t="s">
         <v>19</v>
@@ -3003,10 +3003,10 @@
         <v>159</v>
       </c>
       <c r="B171" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C171" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3014,10 +3014,10 @@
         <v>160</v>
       </c>
       <c r="B172" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C172" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3025,10 +3025,10 @@
         <v>161</v>
       </c>
       <c r="B173" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C173" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3039,7 +3039,7 @@
         <v>5</v>
       </c>
       <c r="C174" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3050,7 +3050,7 @@
         <v>5</v>
       </c>
       <c r="C175" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3058,10 +3058,10 @@
         <v>164</v>
       </c>
       <c r="B176" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C176" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3069,10 +3069,10 @@
         <v>165</v>
       </c>
       <c r="B177" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C177" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3113,10 +3113,10 @@
         <v>168</v>
       </c>
       <c r="B181" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C181" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3124,10 +3124,10 @@
         <v>169</v>
       </c>
       <c r="B182" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C182" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3135,10 +3135,10 @@
         <v>170</v>
       </c>
       <c r="B183" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C183" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3146,7 +3146,7 @@
         <v>171</v>
       </c>
       <c r="B184" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C184" t="s">
         <v>16</v>
@@ -3168,7 +3168,7 @@
         <v>173</v>
       </c>
       <c r="B186" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="C186" t="s">
         <v>19</v>
@@ -3176,7 +3176,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B187" t="s">
         <v>19</v>
@@ -3190,7 +3190,7 @@
         <v>174</v>
       </c>
       <c r="B188" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -3201,7 +3201,7 @@
         <v>175</v>
       </c>
       <c r="B189" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C189" t="s">
         <v>19</v>
@@ -3212,10 +3212,10 @@
         <v>176</v>
       </c>
       <c r="B190" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C190" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3223,7 +3223,7 @@
         <v>177</v>
       </c>
       <c r="B191" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C191" t="s">
         <v>16</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B192" t="s">
         <v>20</v>
@@ -3245,10 +3245,10 @@
         <v>178</v>
       </c>
       <c r="B193" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C193" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3267,15 +3267,15 @@
         <v>179</v>
       </c>
       <c r="B195" t="s">
-        <v>180</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B196" t="s">
         <v>20</v>
@@ -3286,10 +3286,10 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B197" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C197" t="s">
         <v>16</v>
@@ -3297,10 +3297,10 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B198" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C198" t="s">
         <v>19</v>
@@ -3308,51 +3308,51 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B199" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C199" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B200" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C200" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B201" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C201" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B202" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C202" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B203" t="s">
         <v>19</v>
@@ -3363,18 +3363,18 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B204" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C204" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B205" t="s">
         <v>16</v>
@@ -3385,7 +3385,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B206" t="s">
         <v>16</v>
@@ -3396,7 +3396,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B207" t="s">
         <v>16</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B208" t="s">
         <v>19</v>
@@ -3418,87 +3418,87 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B209" t="s">
         <v>16</v>
       </c>
       <c r="C209" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B210" t="s">
         <v>16</v>
       </c>
       <c r="C210" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B211" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C211" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B212" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C212" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B213" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C213" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B214" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C214" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B215" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C215" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B216" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="C216" t="s">
         <v>16</v>
@@ -3506,139 +3506,139 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B217" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B218" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C218" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B219" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C219" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B220" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C220" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B221" t="s">
         <v>19</v>
       </c>
       <c r="C221" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B222" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C222" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B223" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C223" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B224" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C224" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B225" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C225" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B226" t="s">
         <v>16</v>
       </c>
       <c r="C226" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B227" t="s">
         <v>16</v>
       </c>
       <c r="C227" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B228" t="s">
         <v>16</v>
       </c>
       <c r="C228" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B229" t="s">
         <v>19</v>
@@ -3649,51 +3649,51 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B230" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C230" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B231" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C231" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B232" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C232" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B233" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C233" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B234" t="s">
         <v>19</v>
@@ -3704,7 +3704,7 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B235" t="s">
         <v>16</v>
@@ -3715,65 +3715,65 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B236" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="C236" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="C237" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B238" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C238" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B239" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="C239" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B240" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B241" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="C241" t="s">
         <v>16</v>
@@ -3781,29 +3781,29 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B242" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C242" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B243" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B244" t="s">
         <v>19</v>
@@ -3814,18 +3814,18 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B245" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C245" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B246" t="s">
         <v>19</v>
@@ -3836,62 +3836,62 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B247" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C247" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B248" t="s">
         <v>16</v>
       </c>
       <c r="C248" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B249" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C249" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B250" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C250" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B251" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C251" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B252" t="s">
         <v>19</v>
@@ -3902,51 +3902,51 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B253" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C253" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B254" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C254" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B255" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C255" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B256" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C256" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B257" t="s">
         <v>19</v>
@@ -3957,51 +3957,51 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B258" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C258" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B259" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C259" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B260" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="C260" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B261" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="C261" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B262" t="s">
         <v>19</v>
@@ -4012,18 +4012,18 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
+        <v>240</v>
+      </c>
+      <c r="B263" t="s">
         <v>241</v>
       </c>
-      <c r="B263" t="s">
-        <v>242</v>
-      </c>
       <c r="C263" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B264" t="s">
         <v>19</v>
@@ -4034,10 +4034,10 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B265" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C265" t="s">
         <v>16</v>
@@ -4045,10 +4045,10 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B266" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C266" t="s">
         <v>16</v>
@@ -4056,18 +4056,18 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B267" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C267" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B268" t="s">
         <v>19</v>
@@ -4078,43 +4078,43 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B269" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="C269" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B270" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C270" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B271" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="C271" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B272" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="C272" t="s">
         <v>16</v>
@@ -4122,18 +4122,18 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B273" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="C273" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B274" t="s">
         <v>19</v>
@@ -4144,43 +4144,43 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B275" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="C275" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B276" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="C276" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B277" t="s">
         <v>19</v>
       </c>
       <c r="C277" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B278" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C278" t="s">
         <v>19</v>
@@ -4188,24 +4188,24 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B279" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="C279" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
+        <v>254</v>
+      </c>
+      <c r="B280" t="s">
         <v>255</v>
       </c>
-      <c r="B280" t="s">
-        <v>50</v>
-      </c>
       <c r="C280" t="s">
-        <v>50</v>
+        <v>255</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -4213,10 +4213,10 @@
         <v>256</v>
       </c>
       <c r="B281" t="s">
-        <v>50</v>
+        <v>255</v>
       </c>
       <c r="C281" t="s">
-        <v>50</v>
+        <v>255</v>
       </c>
     </row>
     <row r="282" spans="1:3">
